--- a/bin/testdata/t_acti.xlsx
+++ b/bin/testdata/t_acti.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>*id</t>
   </si>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>a=10,b=33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +142,13 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,9 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,7 +453,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,8 +534,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
